--- a/Q2.xlsx
+++ b/Q2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\Bachelor Degree\Year B Sem A\Data Structures\Data-Structures-Project-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1DE301-D039-4CD5-9459-78217D2D2187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49A226C-A2BD-4A1C-8103-9F98A7228A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{13A96694-556F-4C4A-8464-D9EDDEA5E4BE}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A10" sqref="A10:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,8 +637,8 @@
         <v>0.99836007763839074</v>
       </c>
       <c r="H10" s="2">
-        <f>RSQ(E10:E14,B10:B14)</f>
-        <v>0.99977193135129128</v>
+        <f>RSQ(E10:E14,A10:A14)</f>
+        <v>0.999999999999444</v>
       </c>
       <c r="I10" s="2">
         <f>RSQ(F10:F14,C10:C14)</f>
